--- a/case/api_test.xlsx
+++ b/case/api_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/api002/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/api_excel/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D206C03C-CB46-7E46-91CC-684C493D1E63}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45940DD7-178A-5542-AB8B-B4724A5E30F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{6597E44C-9544-A144-AC7F-043803625F02}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/case/api_test.xlsx
+++ b/case/api_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/api_excel/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\api_excel\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45940DD7-178A-5542-AB8B-B4724A5E30F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6257F7FA-3A32-4D42-BEE6-59E9136F5BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{6597E44C-9544-A144-AC7F-043803625F02}"/>
+    <workbookView xWindow="375" yWindow="60" windowWidth="28035" windowHeight="17445" xr2:uid="{6597E44C-9544-A144-AC7F-043803625F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Method</t>
   </si>
@@ -60,18 +60,6 @@
     <t>TC_001</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>['usename':"admin", "password": "1212"]</t>
-  </si>
-  <si>
-    <t>"reson":"success"</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -79,17 +67,41 @@
   </si>
   <si>
     <t>CheckPoint</t>
+  </si>
+  <si>
+    <t>https://gatewaytest.elab-plus.com/elab-wuxi-project//bargain/bargainStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json;charset=UTF-8", "Accept": "application/json"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"customerId": 2805,"houseId": 83}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"success": true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -97,8 +109,15 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -128,8 +147,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,7 +164,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,12 +463,16 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="73.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -460,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -472,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -481,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -490,27 +513,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EA8B8A2F-0AAA-A647-A2DE-9BAF94096969}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>